--- a/Lab 6/Data/Run_5.xlsx
+++ b/Lab 6/Data/Run_5.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn\Dropbox\2015 Spring\LITEC\Labs\LITEC\Lab 6\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1185" windowWidth="22035" windowHeight="8895"/>
   </bookViews>
@@ -513,8 +518,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -565,6 +571,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1257,11 +1266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83200640"/>
-        <c:axId val="83199104"/>
+        <c:axId val="367269320"/>
+        <c:axId val="371198736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83200640"/>
+        <c:axId val="367269320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,12 +1304,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83199104"/>
+        <c:crossAx val="371198736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83199104"/>
+        <c:axId val="371198736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1330,7 +1339,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83200640"/>
+        <c:crossAx val="367269320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1425,7 +1434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1460,7 +1469,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1671,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1681,13 +1690,13 @@
       <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Lab 6/Data/Run_5.xlsx
+++ b/Lab 6/Data/Run_5.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kathryn\Dropbox\2015 Spring\LITEC\Labs\LITEC\Lab 6\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1185" windowWidth="22035" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="Run_5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Time (ms)</t>
   </si>
@@ -34,6 +29,9 @@
   </si>
   <si>
     <t>kd: 6</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -782,156 +780,156 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Run_5!$D$2:$D$50</c:f>
+              <c:f>Run_5!$F$2:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>139</c:v>
+                  <c:v>-94</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124</c:v>
+                  <c:v>-79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93</c:v>
+                  <c:v>-48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105</c:v>
+                  <c:v>-60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>121</c:v>
+                  <c:v>-76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>-55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>-35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>73</c:v>
+                  <c:v>-28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74</c:v>
+                  <c:v>-29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76</c:v>
+                  <c:v>-31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>71</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>58</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>59</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>71</c:v>
+                  <c:v>-26</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>60</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>53</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>67</c:v>
+                  <c:v>-22</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>49</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>54</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>60</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>59</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>54</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>50</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>50</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>50</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>29</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>55</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>68</c:v>
+                  <c:v>-23</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>54</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>47</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>56</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>59</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>54</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>49</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>49</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>51</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,156 +1100,156 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Run_5!$C$2:$C$50</c:f>
+              <c:f>Run_5!$B$2:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,11 +1264,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="367269320"/>
-        <c:axId val="371198736"/>
+        <c:axId val="93063040"/>
+        <c:axId val="93065216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="367269320"/>
+        <c:axId val="93063040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,12 +1302,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371198736"/>
+        <c:crossAx val="93065216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="371198736"/>
+        <c:axId val="93065216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1325,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Heading (degrees)</a:t>
+                  <a:t>Heading Error (degrees)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1339,7 +1337,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="367269320"/>
+        <c:crossAx val="93063040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1434,7 +1432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1469,7 +1467,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1678,15 +1676,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1699,11 +1697,17 @@
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
         <v>45</v>
       </c>
@@ -1713,8 +1717,15 @@
       <c r="E2">
         <v>400</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>C2-D2</f>
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
         <v>45</v>
       </c>
@@ -1724,8 +1735,15 @@
       <c r="E3">
         <v>800</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <f t="shared" ref="F3:F50" si="0">C3-D3</f>
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>45</v>
       </c>
@@ -1735,8 +1753,15 @@
       <c r="E4">
         <v>1200</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
         <v>45</v>
       </c>
@@ -1746,8 +1771,15 @@
       <c r="E5">
         <v>1600</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
         <v>45</v>
       </c>
@@ -1757,8 +1789,15 @@
       <c r="E6">
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
         <v>45</v>
       </c>
@@ -1768,8 +1807,15 @@
       <c r="E7">
         <v>2400</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>45</v>
       </c>
@@ -1779,8 +1825,15 @@
       <c r="E8">
         <v>2800</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
         <v>45</v>
       </c>
@@ -1790,8 +1843,15 @@
       <c r="E9">
         <v>3200</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
         <v>45</v>
       </c>
@@ -1801,8 +1861,15 @@
       <c r="E10">
         <v>3600</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
         <v>45</v>
       </c>
@@ -1812,8 +1879,15 @@
       <c r="E11">
         <v>4000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
         <v>45</v>
       </c>
@@ -1823,8 +1897,15 @@
       <c r="E12">
         <v>4400</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
         <v>45</v>
       </c>
@@ -1834,8 +1915,15 @@
       <c r="E13">
         <v>4800</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
         <v>45</v>
       </c>
@@ -1845,8 +1933,15 @@
       <c r="E14">
         <v>5200</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
         <v>45</v>
       </c>
@@ -1856,8 +1951,15 @@
       <c r="E15">
         <v>5600</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
         <v>45</v>
       </c>
@@ -1867,8 +1969,15 @@
       <c r="E16">
         <v>6000</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
         <v>45</v>
       </c>
@@ -1878,8 +1987,15 @@
       <c r="E17">
         <v>6400</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
         <v>45</v>
       </c>
@@ -1889,8 +2005,15 @@
       <c r="E18">
         <v>6800</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
         <v>45</v>
       </c>
@@ -1900,8 +2023,15 @@
       <c r="E19">
         <v>7200</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
         <v>45</v>
       </c>
@@ -1911,8 +2041,15 @@
       <c r="E20">
         <v>7600</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
         <v>45</v>
       </c>
@@ -1922,8 +2059,15 @@
       <c r="E21">
         <v>8000</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
         <v>45</v>
       </c>
@@ -1933,8 +2077,15 @@
       <c r="E22">
         <v>8400</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
         <v>45</v>
       </c>
@@ -1944,8 +2095,15 @@
       <c r="E23">
         <v>8800</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
         <v>45</v>
       </c>
@@ -1955,8 +2113,15 @@
       <c r="E24">
         <v>9200</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
         <v>45</v>
       </c>
@@ -1966,8 +2131,15 @@
       <c r="E25">
         <v>9600</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0</v>
+      </c>
       <c r="C26">
         <v>45</v>
       </c>
@@ -1977,8 +2149,15 @@
       <c r="E26">
         <v>10000</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="C27">
         <v>45</v>
       </c>
@@ -1988,8 +2167,15 @@
       <c r="E27">
         <v>10400</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0</v>
+      </c>
       <c r="C28">
         <v>45</v>
       </c>
@@ -1999,8 +2185,15 @@
       <c r="E28">
         <v>10800</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0</v>
+      </c>
       <c r="C29">
         <v>45</v>
       </c>
@@ -2010,8 +2203,15 @@
       <c r="E29">
         <v>11200</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0</v>
+      </c>
       <c r="C30">
         <v>45</v>
       </c>
@@ -2021,8 +2221,15 @@
       <c r="E30">
         <v>11600</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0</v>
+      </c>
       <c r="C31">
         <v>45</v>
       </c>
@@ -2032,8 +2239,15 @@
       <c r="E31">
         <v>12000</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
       <c r="C32">
         <v>45</v>
       </c>
@@ -2043,8 +2257,15 @@
       <c r="E32">
         <v>12400</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
       <c r="C33">
         <v>45</v>
       </c>
@@ -2054,8 +2275,15 @@
       <c r="E33">
         <v>12800</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
       <c r="C34">
         <v>45</v>
       </c>
@@ -2065,8 +2293,15 @@
       <c r="E34">
         <v>13200</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>0</v>
+      </c>
       <c r="C35">
         <v>45</v>
       </c>
@@ -2076,8 +2311,15 @@
       <c r="E35">
         <v>13600</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>0</v>
+      </c>
       <c r="C36">
         <v>45</v>
       </c>
@@ -2087,8 +2329,15 @@
       <c r="E36">
         <v>14000</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>0</v>
+      </c>
       <c r="C37">
         <v>45</v>
       </c>
@@ -2098,8 +2347,15 @@
       <c r="E37">
         <v>14400</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>0</v>
+      </c>
       <c r="C38">
         <v>45</v>
       </c>
@@ -2109,8 +2365,15 @@
       <c r="E38">
         <v>14800</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>0</v>
+      </c>
       <c r="C39">
         <v>45</v>
       </c>
@@ -2120,8 +2383,15 @@
       <c r="E39">
         <v>15200</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>0</v>
+      </c>
       <c r="C40">
         <v>45</v>
       </c>
@@ -2131,8 +2401,15 @@
       <c r="E40">
         <v>15600</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="C41">
         <v>45</v>
       </c>
@@ -2142,8 +2419,15 @@
       <c r="E41">
         <v>16000</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="C42">
         <v>45</v>
       </c>
@@ -2153,8 +2437,15 @@
       <c r="E42">
         <v>16400</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="C43">
         <v>45</v>
       </c>
@@ -2164,8 +2455,15 @@
       <c r="E43">
         <v>16800</v>
       </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
       <c r="C44">
         <v>45</v>
       </c>
@@ -2175,8 +2473,15 @@
       <c r="E44">
         <v>17200</v>
       </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>0</v>
+      </c>
       <c r="C45">
         <v>45</v>
       </c>
@@ -2186,8 +2491,15 @@
       <c r="E45">
         <v>17600</v>
       </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0</v>
+      </c>
       <c r="C46">
         <v>45</v>
       </c>
@@ -2197,8 +2509,15 @@
       <c r="E46">
         <v>18000</v>
       </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0</v>
+      </c>
       <c r="C47">
         <v>45</v>
       </c>
@@ -2208,8 +2527,15 @@
       <c r="E47">
         <v>18400</v>
       </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0</v>
+      </c>
       <c r="C48">
         <v>45</v>
       </c>
@@ -2219,8 +2545,15 @@
       <c r="E48">
         <v>18800</v>
       </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
       <c r="C49">
         <v>45</v>
       </c>
@@ -2230,8 +2563,15 @@
       <c r="E49">
         <v>19600</v>
       </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0</v>
+      </c>
       <c r="C50">
         <v>45</v>
       </c>
@@ -2240,6 +2580,10 @@
       </c>
       <c r="E50">
         <v>20000</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>-6</v>
       </c>
     </row>
   </sheetData>
